--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.name.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.name.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -451,7 +451,7 @@
     <t>Type of a name for a Medicinal Product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-name-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-name-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:part</t>
@@ -550,7 +550,7 @@
     <t>Type of part of a name for a Medicinal Product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-name-part-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-name-part-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:part.url</t>
@@ -625,12 +625,6 @@
     <t>Extension.extension:usage.extension:country.value[x]</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-country-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:usage.extension:jurisdiction</t>
   </si>
   <si>
@@ -660,9 +654,6 @@
   </si>
   <si>
     <t>Extension.extension:usage.extension:jurisdiction.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:usage.extension:language</t>
@@ -1053,7 +1044,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="38.88671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.28515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4895,13 +4886,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -4939,13 +4930,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4970,14 +4961,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5037,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>152</v>
@@ -5149,7 +5140,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>154</v>
@@ -5254,7 +5245,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>156</v>
@@ -5297,7 +5288,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5359,7 +5350,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>159</v>
@@ -5388,10 +5379,10 @@
         <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5418,13 +5409,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -5462,13 +5453,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5493,14 +5484,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5569,7 +5560,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>152</v>
@@ -5672,7 +5663,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>154</v>
@@ -5777,7 +5768,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>156</v>
@@ -5820,7 +5811,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5882,7 +5873,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>159</v>
@@ -5911,10 +5902,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5985,7 +5976,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6028,7 +6019,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6090,7 +6081,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
